--- a/doc/计划.xlsx
+++ b/doc/计划.xlsx
@@ -1,224 +1,483 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="23865" windowHeight="9930" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>数据库设计备忘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.表</t>
+  </si>
+  <si>
+    <t>终端代理信息表</t>
+  </si>
+  <si>
+    <t>企业招商信息表</t>
+  </si>
+  <si>
+    <t>用户表</t>
+  </si>
+  <si>
+    <t>后台系统用户表</t>
+  </si>
+  <si>
+    <t>日志表</t>
+  </si>
+  <si>
+    <t>1.信息发布状态：</t>
   </si>
   <si>
     <t>草稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>已发布未审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>审核通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>审核不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.信息发布状态：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端代理信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业招商信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过期</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>2.发布时间</t>
   </si>
   <si>
     <t>计划安排：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计及准备阶段</t>
+  </si>
+  <si>
+    <t>版本控制环境</t>
+  </si>
+  <si>
+    <t>孙宗彬</t>
   </si>
   <si>
     <t>服务器申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发环境搭建</t>
+  </si>
+  <si>
+    <t>吕芳</t>
   </si>
   <si>
     <t>数据库设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>接口设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本控制环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.发布时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙宗彬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发阶段</t>
   </si>
   <si>
     <t>接口开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计及准备阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>运营后台界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营后台接口连调</t>
   </si>
   <si>
     <t>微信端界面ui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>微信端接口连调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营后台接口连调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境搭建</t>
+  </si>
+  <si>
+    <t>系统集成测试</t>
+  </si>
+  <si>
+    <t>6.30</t>
   </si>
   <si>
     <t>技术预研：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.微信图片上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2.solr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统集成测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -226,35 +485,300 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="47">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="注释" xfId="11" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
+    <cellStyle name="标题" xfId="15" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
+    <cellStyle name="输出" xfId="22" builtinId="21"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
+    <cellStyle name="汇总" xfId="28" builtinId="25"/>
+    <cellStyle name="好" xfId="29" builtinId="26"/>
+    <cellStyle name="适中" xfId="30" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -579,123 +1103,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="24.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>19</v>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.8333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>6.7</v>
@@ -703,10 +1235,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>6.6</v>
@@ -714,7 +1246,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -725,10 +1257,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>6.8</v>
@@ -736,23 +1268,23 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>6.9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>6.17</v>
@@ -768,7 +1300,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>6.19</v>
@@ -776,7 +1308,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>6.15</v>
@@ -784,20 +1316,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>6.24</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
         <v>6.25</v>
@@ -805,56 +1337,47 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/计划.xlsx
+++ b/doc/计划.xlsx
@@ -7,9 +7,9 @@
     <workbookView windowWidth="23865" windowHeight="9930" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="开发计划" sheetId="1" r:id="rId1"/>
+    <sheet name="数据库设计" sheetId="2" r:id="rId2"/>
+    <sheet name="技术预研" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -18,6 +18,63 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
+    <t>计划安排：</t>
+  </si>
+  <si>
+    <t>设计及准备阶段</t>
+  </si>
+  <si>
+    <t>版本控制环境搭建</t>
+  </si>
+  <si>
+    <t>孙宗彬</t>
+  </si>
+  <si>
+    <t>服务器申请</t>
+  </si>
+  <si>
+    <t>开发环境搭建</t>
+  </si>
+  <si>
+    <t>吕芳</t>
+  </si>
+  <si>
+    <t>数据库设计</t>
+  </si>
+  <si>
+    <t>接口设计</t>
+  </si>
+  <si>
+    <t>开发阶段</t>
+  </si>
+  <si>
+    <t>接口开发</t>
+  </si>
+  <si>
+    <t>运营后台界面</t>
+  </si>
+  <si>
+    <t>运营后台接口连调</t>
+  </si>
+  <si>
+    <t>微信端界面ui</t>
+  </si>
+  <si>
+    <t>微信端接口连调</t>
+  </si>
+  <si>
+    <t>测试阶段</t>
+  </si>
+  <si>
+    <t>生产环境搭建</t>
+  </si>
+  <si>
+    <t>系统集成测试</t>
+  </si>
+  <si>
+    <t>6.30</t>
+  </si>
+  <si>
     <t>数据库设计备忘</t>
   </si>
   <si>
@@ -61,63 +118,6 @@
   </si>
   <si>
     <t>2.发布时间</t>
-  </si>
-  <si>
-    <t>计划安排：</t>
-  </si>
-  <si>
-    <t>设计及准备阶段</t>
-  </si>
-  <si>
-    <t>版本控制环境</t>
-  </si>
-  <si>
-    <t>孙宗彬</t>
-  </si>
-  <si>
-    <t>服务器申请</t>
-  </si>
-  <si>
-    <t>开发环境搭建</t>
-  </si>
-  <si>
-    <t>吕芳</t>
-  </si>
-  <si>
-    <t>数据库设计</t>
-  </si>
-  <si>
-    <t>接口设计</t>
-  </si>
-  <si>
-    <t>开发阶段</t>
-  </si>
-  <si>
-    <t>接口开发</t>
-  </si>
-  <si>
-    <t>运营后台界面</t>
-  </si>
-  <si>
-    <t>运营后台接口连调</t>
-  </si>
-  <si>
-    <t>微信端界面ui</t>
-  </si>
-  <si>
-    <t>微信端接口连调</t>
-  </si>
-  <si>
-    <t>测试阶段</t>
-  </si>
-  <si>
-    <t>生产环境搭建</t>
-  </si>
-  <si>
-    <t>系统集成测试</t>
-  </si>
-  <si>
-    <t>6.30</t>
   </si>
   <si>
     <t>技术预研：</t>
@@ -1105,10 +1105,163 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="3" max="3" width="10.8333333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1121,225 +1274,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="3" max="3" width="10.8333333333333" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6.17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6.19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1">
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>

--- a/doc/计划.xlsx
+++ b/doc/计划.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="开发计划" sheetId="1" r:id="rId1"/>
     <sheet name="数据库设计" sheetId="2" r:id="rId2"/>
-    <sheet name="技术预研" sheetId="3" r:id="rId3"/>
+    <sheet name="其它" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>计划安排：</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>2.solr</t>
+  </si>
+  <si>
+    <t>3.防注入式提交</t>
   </si>
 </sst>
 </file>
@@ -1353,13 +1356,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1374,6 +1380,11 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/doc/计划.xlsx
+++ b/doc/计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>计划安排：</t>
   </si>
@@ -33,10 +33,16 @@
     <t>服务器申请</t>
   </si>
   <si>
+    <t>吕芳</t>
+  </si>
+  <si>
+    <t>微信公众账号申请</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
     <t>开发环境搭建</t>
-  </si>
-  <si>
-    <t>吕芳</t>
   </si>
   <si>
     <t>数据库设计</t>
@@ -142,7 +148,14 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -589,148 +602,149 @@
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1108,10 +1122,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1146,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>6.6</v>
@@ -1154,21 +1168,21 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.8</v>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>6.8</v>
@@ -1176,79 +1190,90 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
         <v>6.9</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6.17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>6.15</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>6.19</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>6.15</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
         <v>6.24</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1">
-        <v>6.25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1277,73 +1302,73 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1369,22 +1394,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
